--- a/SUM all.xlsx
+++ b/SUM all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shakil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F8BB26-D2D7-4434-8F81-44F507206487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1682FAC-56FE-4B98-8521-BB572389C0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9EA5F52F-FFD8-4D5B-A80B-E56D6A660868}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>product</t>
   </si>
@@ -127,13 +127,58 @@
     <t>japan</t>
   </si>
   <si>
-    <t>4. Find total amount where country name is not equalt to USA</t>
-  </si>
-  <si>
     <t>without USA</t>
   </si>
   <si>
     <t>with USA</t>
+  </si>
+  <si>
+    <t>rajshahir</t>
+  </si>
+  <si>
+    <t>5. Find total amount where country name is not equalt to USA</t>
+  </si>
+  <si>
+    <t>4. Another Example of SUMIFS</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>total sales</t>
   </si>
 </sst>
 </file>
@@ -188,13 +233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,10 +256,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -224,13 +268,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -244,7 +312,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55793FAD-F19A-4DE2-936C-5C1D77ECCC69}" name="tab" displayName="tab" ref="E44:F49" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55793FAD-F19A-4DE2-936C-5C1D77ECCC69}" name="tab" displayName="tab" ref="E54:F59" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3BBB48B5-4CEF-4828-B9E7-F07FD6F93997}" name="name"/>
     <tableColumn id="2" xr3:uid="{57317810-7571-4036-A114-44DB5227061D}" name="amount"/>
@@ -550,37 +618,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104C8F6E-A58F-4F12-BB65-27981AE1D498}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -594,7 +666,7 @@
       <c r="F4">
         <v>500</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -611,7 +683,7 @@
       <c r="F5">
         <v>450</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -628,7 +700,7 @@
       <c r="F6">
         <v>350</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J6">
@@ -695,19 +767,19 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S15" t="s">
@@ -761,16 +833,16 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -780,13 +852,13 @@
       <c r="O24" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -800,11 +872,11 @@
       <c r="G28">
         <v>500</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -817,11 +889,11 @@
       <c r="G29">
         <v>450</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -834,12 +906,12 @@
       <c r="G30">
         <v>350</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K30">
         <f>SUMIFS(G28:G35,F28:F35,K29,E28:E35,"*"&amp;K28&amp;"*")</f>
-        <v>700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -864,7 +936,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>5</v>
       </c>
@@ -875,7 +947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>9</v>
       </c>
@@ -886,9 +958,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -897,93 +969,229 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
+    <row r="38" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>250</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>300</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <f>SUMIFS(G41:G46,E41:E46,O41)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>260</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43">
+        <f>SUMIFS(G41:G46,E41:E46,J41,F41:F46,J42)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-      <c r="H45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45">
+      <c r="J55">
         <f>SUMIFS(tab[amount], tab[name], "&lt;&gt;usa")</f>
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>21</v>
       </c>
-      <c r="F46">
+      <c r="F56">
         <v>100</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" cm="1">
-        <f t="array" ref="J46">SUMPRODUCT(tab[amount], --(tab[name]&lt;&gt;"usa"))</f>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">SUMPRODUCT(tab[amount], --(tab[name]&lt;&gt;"usa"))</f>
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>20</v>
       </c>
-      <c r="F47">
+      <c r="F57">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
         <v>21</v>
       </c>
-      <c r="F48">
+      <c r="F58">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
         <v>22</v>
       </c>
-      <c r="F49">
+      <c r="F59">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K59" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J17:J19" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>